--- a/020.项目策划/010.项目策划/智能化创作工具项目-项目总体计划-v1.0.xlsx
+++ b/020.项目策划/010.项目策划/智能化创作工具项目-项目总体计划-v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作目录\央视网\020.项目策划\010.项目策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C106C6-954B-4E93-81CC-8097C1F944B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B031112-A62B-4417-B516-9D2AD1ED336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
+    <workbookView xWindow="3225" yWindow="2400" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
   </bookViews>
   <sheets>
     <sheet name="文档信息" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
   <si>
     <t>任务名称</t>
   </si>
@@ -112,9 +112,6 @@
     <t>功能开发</t>
   </si>
   <si>
-    <t>59 个工作日</t>
-  </si>
-  <si>
     <t xml:space="preserve">   基本框架搭建</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t xml:space="preserve">   定义模型</t>
   </si>
   <si>
-    <t>19 个工作日</t>
-  </si>
-  <si>
     <t xml:space="preserve">   DSL引擎创建&amp;定义</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t xml:space="preserve">   训练</t>
   </si>
   <si>
-    <t>13 个工作日</t>
-  </si>
-  <si>
     <t xml:space="preserve">   优化及测试输出</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t xml:space="preserve">   平台搭建</t>
   </si>
   <si>
-    <t>49 个工作日</t>
-  </si>
-  <si>
     <t xml:space="preserve">   预览系统</t>
   </si>
   <si>
@@ -163,18 +151,12 @@
     <t>系统测试</t>
   </si>
   <si>
-    <t>54 个工作日</t>
-  </si>
-  <si>
     <t xml:space="preserve">   编制集成测试计划</t>
   </si>
   <si>
     <t xml:space="preserve">   编制集成测试脚本及案例评审</t>
   </si>
   <si>
-    <t xml:space="preserve">   单元测试</t>
-  </si>
-  <si>
     <t>31 个工作日</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t>系统发布</t>
   </si>
   <si>
-    <t>104 个工作日</t>
-  </si>
-  <si>
     <t xml:space="preserve">   编制用户培训计划</t>
   </si>
   <si>
@@ -205,16 +184,7 @@
     <t xml:space="preserve">   用户培训</t>
   </si>
   <si>
-    <t xml:space="preserve">   系统试运行</t>
-  </si>
-  <si>
-    <t>40 个工作日</t>
-  </si>
-  <si>
     <t>系统配置</t>
-  </si>
-  <si>
-    <t>30 个工作日</t>
   </si>
   <si>
     <t xml:space="preserve">   开发文档</t>
@@ -401,6 +371,26 @@
   </si>
   <si>
     <t>5 个工作日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   测试并上线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   系统上线</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 个工作日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   系统试运行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 个工作日</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +521,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +752,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1089,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21">
       <c r="A1" s="20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1080,10 +1100,10 @@
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -1092,10 +1112,10 @@
     </row>
     <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -1104,7 +1124,7 @@
     </row>
     <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="26" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1130,42 +1150,42 @@
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B8" s="12">
         <v>44371</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -1202,22 +1222,22 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -1292,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA75FD3-61FF-4A55-AFF4-E79D4369AD3F}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1321,9 +1341,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="4">
         <v>44358</v>
       </c>
@@ -1402,16 +1420,16 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="31">
         <v>44370</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="31">
         <v>44370</v>
       </c>
     </row>
@@ -1419,9 +1437,7 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="4">
         <v>44370</v>
       </c>
@@ -1459,7 +1475,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -1486,16 +1502,16 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="31">
         <v>44386</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="31">
         <v>44386</v>
       </c>
     </row>
@@ -1503,9 +1519,7 @@
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="4">
         <v>44382</v>
       </c>
@@ -1556,16 +1570,16 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="31">
         <v>44386</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="31">
         <v>44386</v>
       </c>
     </row>
@@ -1573,9 +1587,7 @@
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="4">
         <v>44389</v>
       </c>
@@ -1585,11 +1597,9 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="4">
         <v>44389</v>
       </c>
@@ -1599,7 +1609,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1613,7 +1623,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
@@ -1627,7 +1637,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
@@ -1641,11 +1651,9 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="4">
         <v>44396</v>
       </c>
@@ -1655,7 +1663,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>19</v>
@@ -1669,11 +1677,9 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="4">
         <v>44403</v>
       </c>
@@ -1683,10 +1689,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7">
         <v>44403</v>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>19</v>
@@ -1711,7 +1717,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>12</v>
@@ -1725,7 +1731,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
@@ -1739,7 +1745,7 @@
     </row>
     <row r="32" spans="1:4" ht="28.5">
       <c r="A32" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1753,7 +1759,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>7</v>
@@ -1767,11 +1773,9 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="4">
         <v>44428</v>
       </c>
@@ -1781,7 +1785,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>19</v>
@@ -1795,7 +1799,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -1809,11 +1813,9 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="4">
         <v>44439</v>
       </c>
@@ -1823,10 +1825,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C38" s="7">
         <v>44439</v>
@@ -1837,10 +1839,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7">
         <v>44445</v>
@@ -1851,7 +1853,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>19</v>
@@ -1865,11 +1867,9 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="4">
         <v>44456</v>
       </c>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>19</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>19</v>
@@ -1907,11 +1907,9 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="4">
         <v>44389</v>
       </c>
@@ -1921,7 +1919,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>12</v>
@@ -1935,7 +1933,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>19</v>
@@ -1949,10 +1947,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C47" s="7">
         <v>44399</v>
@@ -1963,10 +1961,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C48" s="7">
         <v>44407</v>
@@ -1977,10 +1975,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C49" s="7">
         <v>44417</v>
@@ -1991,10 +1989,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C50" s="7">
         <v>44425</v>
@@ -2005,10 +2003,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="7">
         <v>44433</v>
@@ -2019,7 +2017,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
@@ -2033,7 +2031,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
@@ -2047,11 +2045,9 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="4">
         <v>44456</v>
       </c>
@@ -2061,7 +2057,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>19</v>
@@ -2075,7 +2071,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>19</v>
@@ -2089,11 +2085,9 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="4">
         <v>44410</v>
       </c>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>5</v>
@@ -2117,7 +2111,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>19</v>
@@ -2131,10 +2125,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C60" s="7">
         <v>44427</v>
@@ -2145,7 +2139,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>5</v>
@@ -2159,7 +2153,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>10</v>
@@ -2173,11 +2167,9 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" s="4">
         <v>44410</v>
       </c>
@@ -2187,7 +2179,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>19</v>
@@ -2201,10 +2193,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C65" s="7">
         <v>44417</v>
@@ -2215,7 +2207,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>19</v>
@@ -2229,141 +2221,153 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="7">
-        <v>44438</v>
+        <v>44464</v>
       </c>
       <c r="D67" s="7">
-        <v>44442</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="7">
+      <c r="A68" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="31">
+        <v>44469</v>
+      </c>
+      <c r="D68" s="31">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="31">
         <v>44477</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="31">
         <v>44482</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="7">
-        <v>44491</v>
-      </c>
-      <c r="D69" s="7">
-        <v>44497</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C70" s="7">
+        <v>44491</v>
+      </c>
+      <c r="D70" s="7">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="31">
+        <v>44505</v>
+      </c>
+      <c r="D71" s="31">
         <v>44545</v>
       </c>
-      <c r="D70" s="7">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="31">
+        <v>44545</v>
+      </c>
+      <c r="D72" s="31">
         <v>44550</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="7">
-        <v>44505</v>
-      </c>
-      <c r="D71" s="7">
-        <v>44550</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="4">
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="4">
         <v>44410</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D73" s="4">
         <v>44449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="7">
-        <v>44410</v>
-      </c>
-      <c r="D73" s="7">
-        <v>44421</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C74" s="7">
-        <v>44424</v>
+        <v>44410</v>
       </c>
       <c r="D74" s="7">
-        <v>44435</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C75" s="7">
-        <v>44438</v>
+        <v>44424</v>
       </c>
       <c r="D75" s="7">
-        <v>44442</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C76" s="7">
+        <v>44438</v>
+      </c>
+      <c r="D76" s="7">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="7">
         <v>44445</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D77" s="7">
         <v>44449</v>
       </c>
     </row>

--- a/020.项目策划/010.项目策划/智能化创作工具项目-项目总体计划-v1.0.xlsx
+++ b/020.项目策划/010.项目策划/智能化创作工具项目-项目总体计划-v1.0.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作目录\央视网\020.项目策划\010.项目策划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\央视网\020.项目策划\010.项目策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B031112-A62B-4417-B516-9D2AD1ED336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AF5A2-3ED7-4B8F-A05E-C95EC41C0834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2400" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
   </bookViews>
   <sheets>
     <sheet name="文档信息" sheetId="2" r:id="rId1"/>
     <sheet name="项目总体计划" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>任务名称</t>
   </si>
@@ -158,12 +158,6 @@
   </si>
   <si>
     <t>31 个工作日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   第三方测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   集成测试结果评审及签认</t>
   </si>
   <si>
     <t>系统发布</t>
@@ -391,6 +385,22 @@
   </si>
   <si>
     <t>40 个工作日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   第三方测试（初测）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 个工作日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   第三方测试（终测）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 个工作日</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -726,6 +736,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,15 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,49 +1098,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="9"/>
@@ -1150,42 +1160,42 @@
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="12">
         <v>44371</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -1197,12 +1207,12 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15"/>
@@ -1222,22 +1232,22 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -1314,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA75FD3-61FF-4A55-AFF4-E79D4369AD3F}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1420,16 +1430,16 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="22">
         <v>44370</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="22">
         <v>44370</v>
       </c>
     </row>
@@ -1475,7 +1485,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -1502,16 +1512,16 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="22">
         <v>44386</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="22">
         <v>44386</v>
       </c>
     </row>
@@ -1570,16 +1580,16 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="22">
         <v>44386</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="22">
         <v>44386</v>
       </c>
     </row>
@@ -1609,7 +1619,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1623,7 +1633,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
@@ -1637,7 +1647,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
@@ -1663,7 +1673,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>19</v>
@@ -1689,10 +1699,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7">
         <v>44403</v>
@@ -1703,7 +1713,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>19</v>
@@ -1717,7 +1727,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>12</v>
@@ -1731,7 +1741,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
@@ -1745,7 +1755,7 @@
     </row>
     <row r="32" spans="1:4" ht="28.5">
       <c r="A32" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1759,7 +1769,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>7</v>
@@ -1785,7 +1795,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>19</v>
@@ -1799,7 +1809,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -1825,10 +1835,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7">
         <v>44439</v>
@@ -1839,10 +1849,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7">
         <v>44445</v>
@@ -1853,7 +1863,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>19</v>
@@ -1879,7 +1889,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>19</v>
@@ -1893,7 +1903,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>19</v>
@@ -1919,7 +1929,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>12</v>
@@ -1933,7 +1943,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>19</v>
@@ -1947,10 +1957,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7">
         <v>44399</v>
@@ -1961,10 +1971,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="7">
         <v>44407</v>
@@ -1975,10 +1985,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="7">
         <v>44417</v>
@@ -1989,10 +1999,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="7">
         <v>44425</v>
@@ -2003,7 +2013,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>32</v>
@@ -2017,7 +2027,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
@@ -2031,7 +2041,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
@@ -2070,7 +2080,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2125,13 +2135,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C60" s="7">
-        <v>44427</v>
+        <v>44464</v>
       </c>
       <c r="D60" s="7">
         <v>44469</v>
@@ -2139,35 +2149,35 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C61" s="7">
-        <v>44477</v>
+        <v>44427</v>
       </c>
       <c r="D61" s="7">
-        <v>44488</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="C62" s="7">
-        <v>44489</v>
+        <v>44533</v>
       </c>
       <c r="D62" s="7">
-        <v>44490</v>
+        <v>44540</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="4">
@@ -2179,7 +2189,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>19</v>
@@ -2193,7 +2203,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>35</v>
@@ -2207,7 +2217,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>19</v>
@@ -2221,7 +2231,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>19</v>
@@ -2234,36 +2244,36 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="31">
+      <c r="A68" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="22">
         <v>44469</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="22">
         <v>44469</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="31">
+      <c r="A69" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="22">
         <v>44477</v>
       </c>
-      <c r="D69" s="31">
-        <v>44482</v>
+      <c r="D69" s="22">
+        <v>44478</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>19</v>
@@ -2276,36 +2286,36 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="31">
-        <v>44505</v>
-      </c>
-      <c r="D71" s="31">
+      <c r="A71" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="22">
+        <v>44479</v>
+      </c>
+      <c r="D71" s="22">
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="22">
+        <v>44541</v>
+      </c>
+      <c r="D72" s="22">
         <v>44545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="31">
-        <v>44545</v>
-      </c>
-      <c r="D72" s="31">
-        <v>44550</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="4">
@@ -2317,7 +2327,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>35</v>
@@ -2331,7 +2341,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>35</v>
@@ -2345,7 +2355,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>19</v>
@@ -2359,7 +2369,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>19</v>

--- a/020.项目策划/010.项目策划/智能化创作工具项目-项目总体计划-v1.0.xlsx
+++ b/020.项目策划/010.项目策划/智能化创作工具项目-项目总体计划-v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作目录\央视网\020.项目策划\010.项目策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B031112-A62B-4417-B516-9D2AD1ED336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D5F562-7988-4ECA-A4B1-031DC7BBB59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3225" yWindow="2400" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CAE780A6-FF2E-4726-82D4-5EE45D019E79}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>任务名称</t>
   </si>
@@ -158,12 +158,6 @@
   </si>
   <si>
     <t>31 个工作日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   第三方测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   集成测试结果评审及签认</t>
   </si>
   <si>
     <t>系统发布</t>
@@ -391,6 +385,18 @@
   </si>
   <si>
     <t>40 个工作日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   第三方测试（初测）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 个工作日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   第三方测试（终测）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -726,6 +732,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,15 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,49 +1094,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="9"/>
@@ -1150,42 +1156,42 @@
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="12">
         <v>44371</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
@@ -1197,12 +1203,12 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15"/>
@@ -1222,22 +1228,22 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
@@ -1314,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA75FD3-61FF-4A55-AFF4-E79D4369AD3F}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1420,16 +1426,16 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="22">
         <v>44370</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="22">
         <v>44370</v>
       </c>
     </row>
@@ -1475,7 +1481,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -1502,16 +1508,16 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="22">
         <v>44386</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="22">
         <v>44386</v>
       </c>
     </row>
@@ -1570,16 +1576,16 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="22">
         <v>44386</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="22">
         <v>44386</v>
       </c>
     </row>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1623,7 +1629,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
@@ -1637,7 +1643,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
@@ -1663,7 +1669,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>19</v>
@@ -1689,10 +1695,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7">
         <v>44403</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>19</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>12</v>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
@@ -1745,7 +1751,7 @@
     </row>
     <row r="32" spans="1:4" ht="28.5">
       <c r="A32" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -1759,7 +1765,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>7</v>
@@ -1785,7 +1791,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>19</v>
@@ -1799,7 +1805,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -1825,10 +1831,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7">
         <v>44439</v>
@@ -1839,10 +1845,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7">
         <v>44445</v>
@@ -1853,7 +1859,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>19</v>
@@ -1879,7 +1885,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>19</v>
@@ -1893,7 +1899,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>19</v>
@@ -1919,7 +1925,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>12</v>
@@ -1933,7 +1939,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>19</v>
@@ -1947,10 +1953,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7">
         <v>44399</v>
@@ -1961,10 +1967,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="7">
         <v>44407</v>
@@ -1975,10 +1981,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" s="7">
         <v>44417</v>
@@ -1989,10 +1995,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="7">
         <v>44425</v>
@@ -2003,7 +2009,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>32</v>
@@ -2017,7 +2023,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
@@ -2031,7 +2037,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
@@ -2125,13 +2131,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C60" s="7">
-        <v>44427</v>
+        <v>44464</v>
       </c>
       <c r="D60" s="7">
         <v>44469</v>
@@ -2139,35 +2145,35 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C61" s="7">
-        <v>44477</v>
+        <v>44427</v>
       </c>
       <c r="D61" s="7">
-        <v>44488</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="C62" s="7">
-        <v>44489</v>
+        <v>44538</v>
       </c>
       <c r="D62" s="7">
-        <v>44490</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="4">
@@ -2179,7 +2185,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>19</v>
@@ -2193,7 +2199,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>35</v>
@@ -2207,7 +2213,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>19</v>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>19</v>
@@ -2234,36 +2240,36 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="31">
+      <c r="A68" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="22">
         <v>44469</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="22">
         <v>44469</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="31">
+      <c r="A69" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="22">
         <v>44477</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D69" s="22">
         <v>44482</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>19</v>
@@ -2276,36 +2282,36 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="31">
+      <c r="A71" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="22">
         <v>44505</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="22">
         <v>44545</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="31">
+      <c r="C72" s="22">
         <v>44545</v>
       </c>
-      <c r="D72" s="31">
+      <c r="D72" s="22">
         <v>44550</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="4">
@@ -2317,7 +2323,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>35</v>
@@ -2331,7 +2337,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>35</v>
@@ -2345,7 +2351,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>19</v>
@@ -2359,7 +2365,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>19</v>
